--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.780534</v>
+        <v>18.639999</v>
       </c>
       <c r="H2">
-        <v>89.34160199999999</v>
+        <v>55.919997</v>
       </c>
       <c r="I2">
-        <v>0.1548865355029382</v>
+        <v>0.1025047374898625</v>
       </c>
       <c r="J2">
-        <v>0.1548865355029382</v>
+        <v>0.1025047374898625</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9400353333333333</v>
+        <v>0.367603</v>
       </c>
       <c r="N2">
-        <v>2.820106</v>
+        <v>1.102809</v>
       </c>
       <c r="O2">
-        <v>0.6167327296723676</v>
+        <v>0.5971364972068339</v>
       </c>
       <c r="P2">
-        <v>0.6167327296723676</v>
+        <v>0.5971364972068339</v>
       </c>
       <c r="Q2">
-        <v>27.99475420553467</v>
+        <v>6.852119552396999</v>
       </c>
       <c r="R2">
-        <v>251.952787849812</v>
+        <v>61.66907597157299</v>
       </c>
       <c r="S2">
-        <v>0.09552359583022317</v>
+        <v>0.06120931989180255</v>
       </c>
       <c r="T2">
-        <v>0.09552359583022316</v>
+        <v>0.06120931989180253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.780534</v>
+        <v>18.639999</v>
       </c>
       <c r="H3">
-        <v>89.34160199999999</v>
+        <v>55.919997</v>
       </c>
       <c r="I3">
-        <v>0.1548865355029382</v>
+        <v>0.1025047374898625</v>
       </c>
       <c r="J3">
-        <v>0.1548865355029382</v>
+        <v>0.1025047374898625</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.74402</v>
       </c>
       <c r="O3">
-        <v>0.1627107227639085</v>
+        <v>0.4028635027931661</v>
       </c>
       <c r="P3">
-        <v>0.1627107227639085</v>
+        <v>0.402863502793166</v>
       </c>
       <c r="Q3">
-        <v>7.385770968893334</v>
+        <v>4.62284401866</v>
       </c>
       <c r="R3">
-        <v>66.47193872004</v>
+        <v>41.60559616794</v>
       </c>
       <c r="S3">
-        <v>0.02520170013808085</v>
+        <v>0.04129541759805999</v>
       </c>
       <c r="T3">
-        <v>0.02520170013808085</v>
+        <v>0.04129541759805998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.780534</v>
+        <v>159.9051616666667</v>
       </c>
       <c r="H4">
-        <v>89.34160199999999</v>
+        <v>479.715485</v>
       </c>
       <c r="I4">
-        <v>0.1548865355029382</v>
+        <v>0.8793475053252791</v>
       </c>
       <c r="J4">
-        <v>0.1548865355029382</v>
+        <v>0.8793475053252789</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3361763333333334</v>
+        <v>0.367603</v>
       </c>
       <c r="N4">
-        <v>1.008529</v>
+        <v>1.102809</v>
       </c>
       <c r="O4">
-        <v>0.2205565475637239</v>
+        <v>0.5971364972068339</v>
       </c>
       <c r="P4">
-        <v>0.2205565475637239</v>
+        <v>0.5971364972068339</v>
       </c>
       <c r="Q4">
-        <v>10.01151072482867</v>
+        <v>58.78161714415165</v>
       </c>
       <c r="R4">
-        <v>90.10359652345799</v>
+        <v>529.0345542973649</v>
       </c>
       <c r="S4">
-        <v>0.03416123953463421</v>
+        <v>0.5250904891575049</v>
       </c>
       <c r="T4">
-        <v>0.03416123953463421</v>
+        <v>0.5250904891575048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>479.715485</v>
       </c>
       <c r="I5">
-        <v>0.8316558897025568</v>
+        <v>0.8793475053252791</v>
       </c>
       <c r="J5">
-        <v>0.8316558897025568</v>
+        <v>0.8793475053252789</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9400353333333333</v>
+        <v>0.2480066666666667</v>
       </c>
       <c r="N5">
-        <v>2.820106</v>
+        <v>0.74402</v>
       </c>
       <c r="O5">
-        <v>0.6167327296723676</v>
+        <v>0.4028635027931661</v>
       </c>
       <c r="P5">
-        <v>0.6167327296723676</v>
+        <v>0.402863502793166</v>
       </c>
       <c r="Q5">
-        <v>150.3165019490455</v>
+        <v>39.65754612774445</v>
       </c>
       <c r="R5">
-        <v>1352.84851754141</v>
+        <v>356.9179151497</v>
       </c>
       <c r="S5">
-        <v>0.5129094070043593</v>
+        <v>0.3542570161677742</v>
       </c>
       <c r="T5">
-        <v>0.5129094070043593</v>
+        <v>0.3542570161677741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.9051616666667</v>
+        <v>3.300083333333333</v>
       </c>
       <c r="H6">
-        <v>479.715485</v>
+        <v>9.90025</v>
       </c>
       <c r="I6">
-        <v>0.8316558897025568</v>
+        <v>0.01814775718485843</v>
       </c>
       <c r="J6">
-        <v>0.8316558897025568</v>
+        <v>0.01814775718485842</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2480066666666667</v>
+        <v>0.367603</v>
       </c>
       <c r="N6">
-        <v>0.74402</v>
+        <v>1.102809</v>
       </c>
       <c r="O6">
-        <v>0.1627107227639085</v>
+        <v>0.5971364972068339</v>
       </c>
       <c r="P6">
-        <v>0.1627107227639085</v>
+        <v>0.5971364972068339</v>
       </c>
       <c r="Q6">
-        <v>39.65754612774445</v>
+        <v>1.213120533583333</v>
       </c>
       <c r="R6">
-        <v>356.9179151497</v>
+        <v>10.91808480225</v>
       </c>
       <c r="S6">
-        <v>0.1353193309043644</v>
+        <v>0.01083668815752651</v>
       </c>
       <c r="T6">
-        <v>0.1353193309043644</v>
+        <v>0.01083668815752651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>159.9051616666667</v>
+        <v>3.300083333333333</v>
       </c>
       <c r="H7">
-        <v>479.715485</v>
+        <v>9.90025</v>
       </c>
       <c r="I7">
-        <v>0.8316558897025568</v>
+        <v>0.01814775718485843</v>
       </c>
       <c r="J7">
-        <v>0.8316558897025568</v>
+        <v>0.01814775718485842</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3361763333333334</v>
+        <v>0.2480066666666667</v>
       </c>
       <c r="N7">
-        <v>1.008529</v>
+        <v>0.74402</v>
       </c>
       <c r="O7">
-        <v>0.2205565475637239</v>
+        <v>0.4028635027931661</v>
       </c>
       <c r="P7">
-        <v>0.2205565475637239</v>
+        <v>0.402863502793166</v>
       </c>
       <c r="Q7">
-        <v>53.75633093017389</v>
+        <v>0.8184426672222223</v>
       </c>
       <c r="R7">
-        <v>483.806978371565</v>
+        <v>7.365984005</v>
       </c>
       <c r="S7">
-        <v>0.1834271517938331</v>
+        <v>0.007311069027331913</v>
       </c>
       <c r="T7">
-        <v>0.1834271517938331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.587531333333333</v>
-      </c>
-      <c r="H8">
-        <v>7.762594</v>
-      </c>
-      <c r="I8">
-        <v>0.01345757479450497</v>
-      </c>
-      <c r="J8">
-        <v>0.01345757479450497</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.9400353333333333</v>
-      </c>
-      <c r="N8">
-        <v>2.820106</v>
-      </c>
-      <c r="O8">
-        <v>0.6167327296723676</v>
-      </c>
-      <c r="P8">
-        <v>0.6167327296723676</v>
-      </c>
-      <c r="Q8">
-        <v>2.432370879440444</v>
-      </c>
-      <c r="R8">
-        <v>21.891337914964</v>
-      </c>
-      <c r="S8">
-        <v>0.008299726837785104</v>
-      </c>
-      <c r="T8">
-        <v>0.008299726837785104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.587531333333333</v>
-      </c>
-      <c r="H9">
-        <v>7.762594</v>
-      </c>
-      <c r="I9">
-        <v>0.01345757479450497</v>
-      </c>
-      <c r="J9">
-        <v>0.01345757479450497</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.2480066666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.74402</v>
-      </c>
-      <c r="O9">
-        <v>0.1627107227639085</v>
-      </c>
-      <c r="P9">
-        <v>0.1627107227639085</v>
-      </c>
-      <c r="Q9">
-        <v>0.6417250208755556</v>
-      </c>
-      <c r="R9">
-        <v>5.77552518788</v>
-      </c>
-      <c r="S9">
-        <v>0.002189691721463262</v>
-      </c>
-      <c r="T9">
-        <v>0.002189691721463262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.587531333333333</v>
-      </c>
-      <c r="H10">
-        <v>7.762594</v>
-      </c>
-      <c r="I10">
-        <v>0.01345757479450497</v>
-      </c>
-      <c r="J10">
-        <v>0.01345757479450497</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.3361763333333334</v>
-      </c>
-      <c r="N10">
-        <v>1.008529</v>
-      </c>
-      <c r="O10">
-        <v>0.2205565475637239</v>
-      </c>
-      <c r="P10">
-        <v>0.2205565475637239</v>
-      </c>
-      <c r="Q10">
-        <v>0.8698667960251111</v>
-      </c>
-      <c r="R10">
-        <v>7.828801164226</v>
-      </c>
-      <c r="S10">
-        <v>0.002968156235256608</v>
-      </c>
-      <c r="T10">
-        <v>0.002968156235256608</v>
+        <v>0.00731106902733191</v>
       </c>
     </row>
   </sheetData>
